--- a/Projects/CCBOTTLERSUS/LIBERTY/Data/Liberty_bottlers_Template_2019_05_09.xlsx
+++ b/Projects/CCBOTTLERSUS/LIBERTY/Data/Liberty_bottlers_Template_2019_05_09.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,6 +35,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$H$51</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$H$51</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$H$51</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$H$51</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$H$51</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0" vbProcedure="false">minimum_facings!$A$1:$E$74</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0" vbProcedure="false">minimum_facings!$A$1:$E$74</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0" vbProcedure="false">minimum_facings!$A$1:$E$74</definedName>
@@ -48,6 +50,8 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">minimum_facings!$A$1:$E$74</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">minimum_facings!$A$1:$E$74</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">minimum_facings!$A$1:$E$74</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">minimum_facings!$A$1:$E$74</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">minimum_facings!$A$1:$E$74</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -59,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8250" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8299" uniqueCount="824">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -382,7 +386,7 @@
     <t xml:space="preserve">Q6: Are IC Core SSD Brands available in secondary cooler or cold vault?</t>
   </si>
   <si>
-    <t xml:space="preserve">Cold vault, cooler</t>
+    <t xml:space="preserve">Cold Vault, cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Front-end cooler</t>
@@ -573,6 +577,9 @@
     <t xml:space="preserve">number_required_SKUS</t>
   </si>
   <si>
+    <t xml:space="preserve">number_required_SKUS - secondary</t>
+  </si>
+  <si>
     <t xml:space="preserve">Survey_Question_SKUs_required</t>
   </si>
   <si>
@@ -1077,6 +1084,9 @@
     <t xml:space="preserve">ean_code</t>
   </si>
   <si>
+    <t xml:space="preserve">secondary_group</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coca-Cola</t>
   </si>
   <si>
@@ -1141,12 +1151,6 @@
   </si>
   <si>
     <t xml:space="preserve">diet Dr Pepper-CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP 1 Part 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP 1 Part 2</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Pineapple</t>
@@ -3045,27 +3049,27 @@
   </sheetPr>
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.3185185185185"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.2407407407407"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.537037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.7407407407407"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="1" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="44.3925925925926"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="64.4814814814815"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="39.1"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="48.4074074074074"/>
-    <col collapsed="false" hidden="false" max="1022" min="16" style="1" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="10.1925925925926"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.262962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.9851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.5148148148148"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.8111111111111"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.2296296296296"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="1" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="46.6444444444444"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="67.8111111111111"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.0592592592593"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.9851851851852"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="50.8592592592593"/>
+    <col collapsed="false" hidden="false" max="1022" min="16" style="1" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="10.5851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5763,12 +5767,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.8296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.0037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.537037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.8"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="12.1518518518519"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.2037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.6703703703704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.8111111111111"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.9851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.1925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="12.5444444444444"/>
   </cols>
   <sheetData>
     <row r="1" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5785,10 +5789,10 @@
         <v>356</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53327,45 +53331,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topRight" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="43.0185185185185"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="33.3185185185185"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="12" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="29.3"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.1259259259259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="12" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.4"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="12" width="38.3148148148148"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="12" width="37.337037037037"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="12" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="12" width="31.5555555555556"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="12" width="29.4962962962963"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="12" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="12" width="43.3148148148148"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="12" width="35.6703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="12" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="45.1740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="34.9851851851852"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="12" width="23.8111111111111"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="12" width="29.9851851851852"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="12" width="30.7703703703704"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.4962962962963"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="12" width="13.5222222222222"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.5777777777778"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="12" width="40.2740740740741"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="12" width="39.1"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="12" width="34.6888888888889"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="12" width="33.1222222222222"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="12" width="30.9666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="12" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="12" width="45.4703703703704"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="12" width="37.4333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="12" width="15.8740740740741"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -53393,10 +53397,13 @@
       <c r="I1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="R1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="S1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -53413,13 +53420,14 @@
       <c r="H2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="R2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="S2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -53430,11 +53438,11 @@
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="n">
@@ -53442,9 +53450,10 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="R3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K3" s="2"/>
+      <c r="S3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -53455,11 +53464,11 @@
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="n">
@@ -53467,9 +53476,10 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="R4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="2"/>
+      <c r="S4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -53481,7 +53491,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -53490,9 +53500,10 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="R5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="2"/>
+      <c r="S5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
@@ -53504,7 +53515,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -53513,9 +53524,10 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="R6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K6" s="2"/>
+      <c r="S6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
@@ -53527,20 +53539,21 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>8</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="R7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="2"/>
+      <c r="S7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
@@ -53551,11 +53564,11 @@
         <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="n">
@@ -53563,9 +53576,10 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="R8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="2"/>
+      <c r="S8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
@@ -53577,7 +53591,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -53586,9 +53600,10 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="R9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="2"/>
+      <c r="S9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>86</v>
       </c>
@@ -53605,13 +53620,14 @@
       <c r="H10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>100</v>
       </c>
@@ -53625,13 +53641,18 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>103</v>
       </c>
@@ -53642,11 +53663,11 @@
         <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="n">
@@ -53654,8 +53675,9 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>105</v>
       </c>
@@ -53666,10 +53688,10 @@
         <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -53678,8 +53700,9 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>107</v>
       </c>
@@ -53691,7 +53714,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -53700,8 +53723,9 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>109</v>
       </c>
@@ -53712,11 +53736,11 @@
         <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="n">
@@ -53724,8 +53748,9 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>111</v>
       </c>
@@ -53737,7 +53762,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -53746,6 +53771,7 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -53773,25 +53799,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.9259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.42592592592593"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.9074074074074"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="30.5740740740741"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1925925925926"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.437037037037"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="31.3592592592593"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="49.5851851851852"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="39.2962962962963"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="41.2555555555556"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="61.8333333333333"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="27.537037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4925925925926"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.5703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.1407407407407"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="28.1259259259259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.0037037037037"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="32.9259259259259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="52.1333333333333"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="41.2555555555556"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="43.3148148148148"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="64.9703703703704"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.262962962963"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="22.537037037037"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="28.8111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="15.8740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53808,10 +53834,10 @@
         <v>126</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -53829,7 +53855,7 @@
     </row>
     <row r="2" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>34</v>
@@ -53838,13 +53864,13 @@
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="4"/>
@@ -53862,7 +53888,7 @@
     </row>
     <row r="3" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
@@ -53871,13 +53897,13 @@
         <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
@@ -53895,7 +53921,7 @@
     </row>
     <row r="4" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>124</v>
@@ -53904,13 +53930,13 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="4"/>
@@ -53928,7 +53954,7 @@
     </row>
     <row r="5" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>95</v>
@@ -53937,13 +53963,13 @@
         <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -53972,27 +53998,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="36.8444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="14.7"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="50.3703703703704"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="12" width="23.8111111111111"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="12" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="12" width="38.3148148148148"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="53.7"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="12" width="24.9888888888889"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="12" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="12" width="39.1"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="12" width="27.537037037037"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="12" width="25.4777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="12" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="38.6111111111111"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="25.4777777777778"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="22.537037037037"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.9851851851852"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="52.9185185185185"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="12" width="24.9888888888889"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="12" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="12" width="40.2740740740741"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.9851851851852"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="56.4444444444444"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="12" width="26.262962962963"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="12" width="21.8518518518519"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="12" width="41.0592592592593"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="12" width="28.8111111111111"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="12" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="12" width="15.8740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54012,16 +54038,16 @@
         <v>127</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="0"/>
@@ -54042,18 +54068,18 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="0"/>
@@ -54074,18 +54100,18 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="0"/>
@@ -54106,18 +54132,18 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="0"/>
@@ -54138,18 +54164,18 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="0"/>
@@ -54161,7 +54187,7 @@
     </row>
     <row r="6" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -54170,16 +54196,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="0"/>
@@ -54200,16 +54226,16 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="0"/>
@@ -54230,16 +54256,16 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="0"/>
@@ -54260,16 +54286,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="0"/>
@@ -54290,18 +54316,18 @@
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="0"/>
@@ -54322,16 +54348,16 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="0"/>
@@ -54353,13 +54379,13 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="0"/>
@@ -54380,14 +54406,14 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="0"/>
@@ -54648,20 +54674,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="48.6037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="12" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="30.9666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="26.262962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="23.8111111111111"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="36.4555555555556"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="12" width="42.137037037037"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="12" width="44.7814814814815"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="12" width="27.8296296296296"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="12" width="45.0777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="12" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="51.0555555555556"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="12" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="25.4777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="32.437037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="27.537037037037"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="24.9888888888889"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="38.3148148148148"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="21.262962962963"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="12" width="44.1962962962963"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="12" width="47.1333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="12" width="29.2037037037037"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="12" width="47.3296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="12" width="15.8740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54678,16 +54704,16 @@
         <v>126</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -54707,19 +54733,19 @@
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -54739,19 +54765,19 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -54771,17 +54797,17 @@
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -54801,17 +54827,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -55054,19 +55080,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="48.6037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="12" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="30.9666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="26.262962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="36.4555555555556"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="42.137037037037"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="44.7814814814815"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="12" width="27.8296296296296"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="12" width="45.0777777777778"/>
-    <col collapsed="false" hidden="false" max="1022" min="13" style="12" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="51.0555555555556"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="12" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="25.4777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="32.437037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="27.537037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="38.3148148148148"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="21.262962962963"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="44.1962962962963"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="47.1333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="12" width="29.2037037037037"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="12" width="47.3296296296296"/>
+    <col collapsed="false" hidden="false" max="1022" min="13" style="12" width="15.8740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55083,10 +55108,10 @@
         <v>126</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -55106,10 +55131,10 @@
         <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F2" s="16" t="n">
         <v>0.9</v>
@@ -55147,20 +55172,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="51.0555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="11.9555555555556"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="72.4185185185185"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="56.6407407407407"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="32.337037037037"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="12" width="38.0222222222222"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="12" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="12" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="14.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="53.7"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="76.1407407407407"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="59.4814814814815"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="33.9074074074074"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="12" width="39.8851851851852"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="12" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="12" width="15.8740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55171,7 +55196,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="4"/>
@@ -55192,7 +55217,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="4"/>
@@ -55213,7 +55238,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="4"/>
@@ -55234,7 +55259,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="4"/>
@@ -55255,7 +55280,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="4"/>
@@ -55276,7 +55301,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="4"/>
@@ -55300,7 +55325,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="4"/>
@@ -55324,7 +55349,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="4"/>
@@ -55348,7 +55373,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="4"/>
@@ -55372,7 +55397,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="4"/>
@@ -55396,7 +55421,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="4"/>
@@ -55420,7 +55445,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="4"/>
@@ -55444,7 +55469,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="4"/>
@@ -55468,7 +55493,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="4"/>
@@ -55492,7 +55517,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="4"/>
@@ -55515,7 +55540,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="4"/>
@@ -55548,46 +55573,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.337037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.137037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.6037037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5555555555556"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.7888888888889"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.9259259259259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.1962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.8296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3592592592593"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.4925925925926"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B2" s="21" t="n">
         <v>8</v>
@@ -55599,13 +55624,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H2" s="22" t="n">
         <v>1</v>
@@ -55613,7 +55638,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B3" s="21" t="n">
         <v>6</v>
@@ -55625,13 +55650,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>6</v>
@@ -55639,7 +55664,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B4" s="21" t="n">
         <v>12</v>
@@ -55651,13 +55676,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
@@ -55665,7 +55690,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B5" s="21" t="n">
         <v>12</v>
@@ -55677,13 +55702,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
@@ -55691,7 +55716,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B6" s="21" t="n">
         <v>6</v>
@@ -55703,13 +55728,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
@@ -55717,7 +55742,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B7" s="21" t="n">
         <v>4</v>
@@ -55729,13 +55754,13 @@
         <v>15</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>15</v>
@@ -55743,7 +55768,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B8" s="21" t="n">
         <v>12</v>
@@ -55755,13 +55780,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
@@ -55769,7 +55794,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B9" s="21" t="n">
         <v>6</v>
@@ -55781,13 +55806,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>6</v>
@@ -55795,7 +55820,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B10" s="21" t="n">
         <v>12</v>
@@ -55807,13 +55832,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
@@ -55821,7 +55846,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B11" s="21" t="n">
         <v>8</v>
@@ -55833,13 +55858,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>4</v>
@@ -55847,7 +55872,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B12" s="21" t="n">
         <v>12</v>
@@ -55859,13 +55884,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
@@ -55873,7 +55898,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B13" s="21" t="n">
         <v>4</v>
@@ -55885,13 +55910,13 @@
         <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>12</v>
@@ -55899,7 +55924,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B14" s="21" t="n">
         <v>6</v>
@@ -55911,13 +55936,13 @@
         <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>12</v>
@@ -55925,7 +55950,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B15" s="21" t="n">
         <v>16</v>
@@ -55937,13 +55962,13 @@
         <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>12</v>
@@ -55951,7 +55976,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B16" s="21" t="n">
         <v>16</v>
@@ -55963,13 +55988,13 @@
         <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>12</v>
@@ -55977,7 +56002,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B17" s="21" t="n">
         <v>12</v>
@@ -55989,13 +56014,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>12</v>
@@ -56003,7 +56028,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" s="21" t="n">
         <v>24</v>
@@ -56015,13 +56040,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>12</v>
@@ -56029,7 +56054,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="21" t="n">
         <v>8</v>
@@ -56041,13 +56066,13 @@
         <v>24</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>24</v>
@@ -56055,7 +56080,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B20" s="21" t="n">
         <v>8</v>
@@ -56067,13 +56092,13 @@
         <v>35</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>35</v>
@@ -56081,7 +56106,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" s="21" t="n">
         <v>6</v>
@@ -56093,13 +56118,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>4</v>
@@ -56107,7 +56132,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B22" s="21" t="n">
         <v>6</v>
@@ -56119,13 +56144,13 @@
         <v>6</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>6</v>
@@ -56133,7 +56158,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B23" s="21" t="n">
         <v>9</v>
@@ -56145,13 +56170,13 @@
         <v>8</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>8</v>
@@ -56159,7 +56184,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B24" s="21" t="n">
         <v>9</v>
@@ -56171,13 +56196,13 @@
         <v>8</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>8</v>
@@ -56185,7 +56210,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" s="21" t="n">
         <v>12</v>
@@ -56197,13 +56222,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
@@ -56211,7 +56236,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B26" s="21" t="n">
         <v>12</v>
@@ -56223,13 +56248,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1</v>
@@ -56237,7 +56262,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B27" s="21" t="n">
         <v>12</v>
@@ -56249,13 +56274,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1</v>
@@ -56263,7 +56288,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B28" s="21" t="n">
         <v>12</v>
@@ -56275,13 +56300,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>1</v>
@@ -56289,7 +56314,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B29" s="21" t="n">
         <v>6</v>
@@ -56301,13 +56326,13 @@
         <v>10</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>10</v>
@@ -56315,7 +56340,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B30" s="21" t="n">
         <v>12</v>
@@ -56327,13 +56352,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
@@ -56341,7 +56366,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B31" s="21" t="n">
         <v>8</v>
@@ -56353,13 +56378,13 @@
         <v>4</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>4</v>
@@ -56367,7 +56392,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B32" s="21" t="n">
         <v>6</v>
@@ -56379,13 +56404,13 @@
         <v>10</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>10</v>
@@ -56393,7 +56418,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B33" s="21" t="n">
         <v>12</v>
@@ -56405,13 +56430,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>1</v>
@@ -56419,7 +56444,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B34" s="21" t="n">
         <v>24</v>
@@ -56431,13 +56456,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1</v>
@@ -56445,7 +56470,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B35" s="21" t="n">
         <v>4</v>
@@ -56457,13 +56482,13 @@
         <v>24</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>24</v>
@@ -56471,7 +56496,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B36" s="21" t="n">
         <v>8</v>
@@ -56483,13 +56508,13 @@
         <v>4</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>4</v>
@@ -56497,7 +56522,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B37" s="21" t="n">
         <v>9</v>
@@ -56509,13 +56534,13 @@
         <v>8</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>8</v>
@@ -56523,7 +56548,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B38" s="21" t="n">
         <v>6</v>
@@ -56535,13 +56560,13 @@
         <v>12</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>12</v>
@@ -56549,7 +56574,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B39" s="21" t="n">
         <v>12</v>
@@ -56561,13 +56586,13 @@
         <v>1</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
@@ -56575,7 +56600,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B40" s="21" t="n">
         <v>6</v>
@@ -56587,13 +56612,13 @@
         <v>24</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>24</v>
@@ -56601,7 +56626,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B41" s="21" t="n">
         <v>4</v>
@@ -56613,13 +56638,13 @@
         <v>32</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>32</v>
@@ -56627,7 +56652,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B42" s="21" t="n">
         <v>6</v>
@@ -56639,13 +56664,13 @@
         <v>6</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>6</v>
@@ -56653,7 +56678,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B43" s="21" t="n">
         <v>12</v>
@@ -56665,13 +56690,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>1</v>
@@ -56679,7 +56704,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B44" s="21" t="n">
         <v>12</v>
@@ -56691,13 +56716,13 @@
         <v>1</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>1</v>
@@ -56705,7 +56730,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B45" s="21" t="n">
         <v>16</v>
@@ -56717,13 +56742,13 @@
         <v>1</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>1</v>
@@ -56731,7 +56756,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B46" s="21" t="n">
         <v>6</v>
@@ -56743,13 +56768,13 @@
         <v>4</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>4</v>
@@ -56757,7 +56782,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B47" s="21" t="n">
         <v>4</v>
@@ -56769,13 +56794,13 @@
         <v>12</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>12</v>
@@ -56783,7 +56808,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B48" s="21" t="n">
         <v>24</v>
@@ -56795,13 +56820,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1</v>
@@ -56809,7 +56834,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B49" s="21" t="n">
         <v>24</v>
@@ -56821,13 +56846,13 @@
         <v>1</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>1</v>
@@ -56835,7 +56860,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B50" s="21" t="n">
         <v>3</v>
@@ -56847,13 +56872,13 @@
         <v>24</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>24</v>
@@ -56861,7 +56886,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B51" s="21" t="n">
         <v>9</v>
@@ -56873,13 +56898,13 @@
         <v>8</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>8</v>
@@ -56887,7 +56912,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B52" s="21" t="n">
         <v>12</v>
@@ -56899,13 +56924,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -56913,7 +56938,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B53" s="21" t="n">
         <v>12</v>
@@ -56925,13 +56950,13 @@
         <v>1</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -56939,7 +56964,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B54" s="21" t="n">
         <v>6</v>
@@ -56951,13 +56976,13 @@
         <v>6</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>6</v>
@@ -56965,7 +56990,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B55" s="21" t="n">
         <v>12</v>
@@ -56977,13 +57002,13 @@
         <v>1</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>1</v>
@@ -56991,7 +57016,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B56" s="21" t="n">
         <v>12</v>
@@ -57003,13 +57028,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>1</v>
@@ -57017,7 +57042,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B57" s="21" t="n">
         <v>12</v>
@@ -57029,13 +57054,13 @@
         <v>1</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1</v>
@@ -57043,7 +57068,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B58" s="21" t="n">
         <v>4</v>
@@ -57055,13 +57080,13 @@
         <v>1</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>1</v>
@@ -57069,7 +57094,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B59" s="21" t="n">
         <v>15</v>
@@ -57081,13 +57106,13 @@
         <v>1</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>1</v>
@@ -57095,7 +57120,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B60" s="21" t="n">
         <v>12</v>
@@ -57107,13 +57132,13 @@
         <v>1</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>1</v>
@@ -57121,7 +57146,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B61" s="21" t="n">
         <v>12</v>
@@ -57133,13 +57158,13 @@
         <v>1</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>1</v>
@@ -57147,7 +57172,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B62" s="21" t="n">
         <v>3</v>
@@ -57159,13 +57184,13 @@
         <v>24</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>24</v>
@@ -57173,7 +57198,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B63" s="21" t="n">
         <v>6</v>
@@ -57185,13 +57210,13 @@
         <v>4</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>4</v>
@@ -57199,7 +57224,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B64" s="21" t="n">
         <v>6</v>
@@ -57211,13 +57236,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>1</v>
@@ -57225,7 +57250,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B65" s="21" t="n">
         <v>6</v>
@@ -57237,13 +57262,13 @@
         <v>1</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>1</v>
@@ -57251,7 +57276,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B66" s="21" t="n">
         <v>9</v>
@@ -57263,13 +57288,13 @@
         <v>10</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>10</v>
@@ -57277,7 +57302,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B67" s="23" t="n">
         <v>4</v>
@@ -57289,7 +57314,7 @@
         <v>30</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
@@ -57297,7 +57322,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B68" s="21" t="n">
         <v>12</v>
@@ -57309,13 +57334,13 @@
         <v>6</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>6</v>
@@ -57323,7 +57348,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B69" s="21" t="n">
         <v>12</v>
@@ -57335,13 +57360,13 @@
         <v>1</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>1</v>
@@ -57349,7 +57374,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B70" s="21" t="n">
         <v>6</v>
@@ -57361,13 +57386,13 @@
         <v>6</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>6</v>
@@ -57375,7 +57400,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B71" s="23" t="n">
         <v>12</v>
@@ -57387,7 +57412,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F71" s="24"/>
       <c r="G71" s="24"/>
@@ -57395,7 +57420,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B72" s="21" t="n">
         <v>12</v>
@@ -57407,13 +57432,13 @@
         <v>1</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>1</v>
@@ -57421,7 +57446,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B73" s="21" t="n">
         <v>12</v>
@@ -57433,13 +57458,13 @@
         <v>1</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>1</v>
@@ -57447,7 +57472,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B74" s="21" t="n">
         <v>6</v>
@@ -57459,13 +57484,13 @@
         <v>4</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>4</v>
@@ -57489,19 +57514,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.6666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.4444444444444"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.7259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.9851851851852"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.2851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57509,14 +57534,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57524,11 +57552,11 @@
         <v>42</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E2" s="27" t="n">
         <v>4900000044</v>
@@ -57539,11 +57567,11 @@
         <v>42</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E3" s="27" t="n">
         <v>4900005341</v>
@@ -57554,11 +57582,11 @@
         <v>42</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E4" s="28" t="n">
         <v>4900000522</v>
@@ -57569,11 +57597,11 @@
         <v>42</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E5" s="29"/>
     </row>
@@ -57582,11 +57610,11 @@
         <v>42</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E6" s="27" t="n">
         <v>4900007871</v>
@@ -57597,11 +57625,11 @@
         <v>42</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E7" s="27" t="n">
         <v>4900007868</v>
@@ -57612,11 +57640,11 @@
         <v>42</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E8" s="27" t="n">
         <v>4900007892</v>
@@ -57627,11 +57655,11 @@
         <v>42</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E9" s="27" t="n">
         <v>4900007889</v>
@@ -57642,11 +57670,11 @@
         <v>42</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E10" s="30" t="n">
         <v>4900007511</v>
@@ -57657,11 +57685,11 @@
         <v>42</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E11" s="27" t="n">
         <v>4900007625</v>
@@ -57672,11 +57700,11 @@
         <v>42</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E12" s="27" t="n">
         <v>4900007896</v>
@@ -57687,11 +57715,11 @@
         <v>42</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E13" s="30" t="n">
         <v>4900007509</v>
@@ -57702,11 +57730,11 @@
         <v>42</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E14" s="30" t="n">
         <v>4900004951</v>
@@ -57717,11 +57745,11 @@
         <v>42</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E15" s="30" t="n">
         <v>4900007488</v>
@@ -57732,11 +57760,11 @@
         <v>42</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E16" s="30" t="n">
         <v>4900007486</v>
@@ -57747,11 +57775,11 @@
         <v>42</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E17" s="27" t="n">
         <v>4900000463</v>
@@ -57762,11 +57790,11 @@
         <v>42</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E18" s="27" t="n">
         <v>4900004993</v>
@@ -57777,11 +57805,11 @@
         <v>42</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E19" s="29" t="n">
         <v>49000074130</v>
@@ -57792,11 +57820,11 @@
         <v>42</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="21" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E20" s="29" t="n">
         <v>49000074116</v>
@@ -57807,11 +57835,11 @@
         <v>85</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E21" s="31" t="n">
         <v>4900000044</v>
@@ -57822,11 +57850,11 @@
         <v>85</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E22" s="31" t="n">
         <v>4900000045</v>
@@ -57837,11 +57865,11 @@
         <v>85</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E23" s="31" t="n">
         <v>4900000764</v>
@@ -57852,11 +57880,11 @@
         <v>85</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E24" s="27" t="n">
         <v>7800000318</v>
@@ -57867,11 +57895,11 @@
         <v>85</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E25" s="27" t="n">
         <v>7297900417</v>
@@ -57882,11 +57910,11 @@
         <v>85</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="21" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E26" s="28" t="n">
         <v>4900004086</v>
@@ -57897,11 +57925,11 @@
         <v>85</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E27" s="27" t="n">
         <v>4900001916</v>
@@ -57912,11 +57940,11 @@
         <v>85</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E28" s="27" t="n">
         <v>7800008340</v>
@@ -57924,14 +57952,14 @@
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E29" s="27" t="n">
         <v>4900000044</v>
@@ -57939,27 +57967,27 @@
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="s">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E30" s="29"/>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="s">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E31" s="27" t="n">
         <v>4900000463</v>
@@ -57967,14 +57995,14 @@
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="s">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E32" s="27" t="n">
         <v>4900004993</v>
@@ -57982,14 +58010,14 @@
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E33" s="29" t="n">
         <v>49000074130</v>
@@ -57997,145 +58025,169 @@
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="s">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="21" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E34" s="29" t="n">
         <v>49000074116</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E35" s="28" t="n">
         <v>4900000045</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E36" s="28" t="n">
         <v>4900000764</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E37" s="27" t="n">
         <v>7800000318</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E38" s="27" t="n">
         <v>7297900417</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E39" s="28" t="n">
         <v>4900004086</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E40" s="27" t="n">
         <v>4900001916</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E41" s="27" t="n">
         <v>7800008340</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E42" s="28" t="n">
         <v>4900001801</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="21" t="s">
@@ -58144,13 +58196,16 @@
       <c r="E43" s="28" t="n">
         <v>4900002820</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21" t="s">
@@ -58159,13 +58214,16 @@
       <c r="E44" s="28" t="n">
         <v>4900003117</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21" t="s">
@@ -58174,13 +58232,16 @@
       <c r="E45" s="27" t="n">
         <v>4900004754</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
@@ -58189,13 +58250,16 @@
       <c r="E46" s="27" t="n">
         <v>4900003719</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
@@ -58204,13 +58268,16 @@
       <c r="E47" s="27" t="n">
         <v>4900002627</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
@@ -58219,13 +58286,16 @@
       <c r="E48" s="30" t="n">
         <v>4900007222</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
@@ -58234,13 +58304,16 @@
       <c r="E49" s="27" t="n">
         <v>4900000046</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
@@ -58249,13 +58322,16 @@
       <c r="E50" s="27" t="n">
         <v>4900002620</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
@@ -58264,13 +58340,16 @@
       <c r="E51" s="27" t="n">
         <v>4900002392</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
@@ -58279,13 +58358,16 @@
       <c r="E52" s="27" t="n">
         <v>7800009840</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
@@ -58294,28 +58376,34 @@
       <c r="E53" s="27" t="n">
         <v>4900003256</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E54" s="27" t="n">
         <v>4900007891</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="21" t="s">
@@ -58324,13 +58412,16 @@
       <c r="E55" s="30" t="n">
         <v>4900007872</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21" t="s">
@@ -58339,13 +58430,16 @@
       <c r="E56" s="30" t="n">
         <v>4900001806</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="21" t="s">
@@ -58354,13 +58448,16 @@
       <c r="E57" s="28" t="n">
         <v>4900006696</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21" t="s">
@@ -58369,28 +58466,34 @@
       <c r="E58" s="30" t="n">
         <v>4900007485</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E59" s="27" t="n">
         <v>4900007888</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="21" t="s">
@@ -58399,13 +58502,16 @@
       <c r="E60" s="30" t="n">
         <v>4900007223</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21" t="s">
@@ -58414,13 +58520,16 @@
       <c r="E61" s="27" t="n">
         <v>7800015240</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
@@ -58429,13 +58538,16 @@
       <c r="E62" s="27" t="n">
         <v>4900006160</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="21" t="s">
@@ -58444,13 +58556,16 @@
       <c r="E63" s="28" t="n">
         <v>4900001679</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C64" s="21"/>
       <c r="D64" s="21" t="s">
@@ -58459,13 +58574,16 @@
       <c r="E64" s="27" t="n">
         <v>4900006522</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21" t="s">
@@ -58474,13 +58592,16 @@
       <c r="E65" s="30" t="n">
         <v>4900007196</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="21" t="s">
@@ -58489,13 +58610,16 @@
       <c r="E66" s="29" t="n">
         <v>7800002110</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="21" t="s">
@@ -58504,62 +58628,77 @@
       <c r="E67" s="29" t="n">
         <v>4900004143</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C68" s="21"/>
       <c r="D68" s="21" t="s">
         <v>346</v>
       </c>
       <c r="E68" s="29"/>
-    </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>347</v>
       </c>
       <c r="C69" s="21"/>
       <c r="D69" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E69" s="29"/>
-    </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>347</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E70" s="29"/>
-    </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F70" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>347</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E71" s="29"/>
-    </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>347</v>
@@ -58569,28 +58708,34 @@
         <v>342</v>
       </c>
       <c r="E72" s="29"/>
-    </row>
-    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F72" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>347</v>
       </c>
       <c r="C73" s="21"/>
       <c r="D73" s="21" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E73" s="29" t="n">
         <v>49000000313</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F73" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C74" s="21"/>
       <c r="D74" s="21" t="s">
@@ -58599,13 +58744,16 @@
       <c r="E74" s="28" t="n">
         <v>4900004782</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C75" s="21"/>
       <c r="D75" s="21" t="s">
@@ -58614,13 +58762,16 @@
       <c r="E75" s="28" t="n">
         <v>4900006283</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C76" s="21"/>
       <c r="D76" s="21" t="s">
@@ -58629,13 +58780,16 @@
       <c r="E76" s="28" t="n">
         <v>4900006282</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C77" s="21"/>
       <c r="D77" s="21" t="s">
@@ -58644,13 +58798,16 @@
       <c r="E77" s="28" t="n">
         <v>4900006281</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C78" s="21"/>
       <c r="D78" s="21" t="s">
@@ -58659,50 +58816,62 @@
       <c r="E78" s="28" t="n">
         <v>4900004784</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C79" s="21"/>
       <c r="D79" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E79" s="27" t="n">
         <v>4900005099</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F79" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C80" s="21"/>
       <c r="D80" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E80" s="27" t="n">
         <v>4900005455</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="25" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C81" s="21"/>
       <c r="D81" s="21" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E81" s="27" t="n">
         <v>4900004994</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
